--- a/PT-FireSprd_L3_FireBehavior.xlsx
+++ b/PT-FireSprd_L3_FireBehavior.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helena/Individual Project/DataScienceProj_WildfireAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0434B75F-63C9-D440-9F58-3E85310EF78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE2EAA8-7C8B-2045-9F98-1C6B9AA15396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16080"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PT-FireSprd_L3_FireBehavior" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="437">
   <si>
     <t>fid</t>
   </si>
@@ -79,9 +79,6 @@
     <t>FRE_flux</t>
   </si>
   <si>
-    <t>Abrantes_09082017</t>
-  </si>
-  <si>
     <t>2017-08-09 18:00</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>2017-08-10 22:00</t>
   </si>
   <si>
-    <t>Agueda_05092019</t>
-  </si>
-  <si>
     <t>2019-09-05 09:30</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t>2019-09-06 15:00</t>
   </si>
   <si>
-    <t>Agueda_08082016</t>
-  </si>
-  <si>
     <t>2016-08-08 04:00</t>
   </si>
   <si>
@@ -151,9 +142,6 @@
     <t>2016-08-12 03:00</t>
   </si>
   <si>
-    <t>Agueda_15102017</t>
-  </si>
-  <si>
     <t>2017-10-15 17:00</t>
   </si>
   <si>
@@ -166,9 +154,6 @@
     <t>2017-10-16 04:00</t>
   </si>
   <si>
-    <t>Alcobaca_15102017</t>
-  </si>
-  <si>
     <t>2017-10-15 14:00</t>
   </si>
   <si>
@@ -178,9 +163,6 @@
     <t>2017-10-16 18:00</t>
   </si>
   <si>
-    <t>Alijo_24072019</t>
-  </si>
-  <si>
     <t>2019-07-24 15:00</t>
   </si>
   <si>
@@ -190,9 +172,6 @@
     <t>2019-07-24 21:30</t>
   </si>
   <si>
-    <t>Aljezur_19062020</t>
-  </si>
-  <si>
     <t>2020-06-19 13:00</t>
   </si>
   <si>
@@ -211,9 +190,6 @@
     <t>2020-06-20 23:30</t>
   </si>
   <si>
-    <t>Alvaiazere_11082017</t>
-  </si>
-  <si>
     <t>2017-08-11 19:30</t>
   </si>
   <si>
@@ -250,9 +226,6 @@
     <t>2017-08-19 01:00</t>
   </si>
   <si>
-    <t>Anadia_10082016</t>
-  </si>
-  <si>
     <t>2016-08-10 02:30</t>
   </si>
   <si>
@@ -265,9 +238,6 @@
     <t>2016-08-12 01:00</t>
   </si>
   <si>
-    <t>ArcosdeValdevez_08082016</t>
-  </si>
-  <si>
     <t>2016-08-08 02:00</t>
   </si>
   <si>
@@ -286,9 +256,6 @@
     <t>2016-08-11 17:30</t>
   </si>
   <si>
-    <t>Arganil_15102017</t>
-  </si>
-  <si>
     <t>2017-10-15 12:30</t>
   </si>
   <si>
@@ -298,9 +265,6 @@
     <t>2017-10-16 01:00</t>
   </si>
   <si>
-    <t>Arouca_08082016</t>
-  </si>
-  <si>
     <t>2016-08-08 14:30</t>
   </si>
   <si>
@@ -331,9 +295,6 @@
     <t>2016-08-14 20:00</t>
   </si>
   <si>
-    <t>Avis_21072020</t>
-  </si>
-  <si>
     <t>2020-07-21 14:30</t>
   </si>
   <si>
@@ -343,9 +304,6 @@
     <t>2020-07-21 18:30</t>
   </si>
   <si>
-    <t>Baiao_04092019</t>
-  </si>
-  <si>
     <t>2019-09-05 23:30</t>
   </si>
   <si>
@@ -355,9 +313,6 @@
     <t>2019-09-06 17:00</t>
   </si>
   <si>
-    <t>Boticas_05092016</t>
-  </si>
-  <si>
     <t>2016-09-05 16:00</t>
   </si>
   <si>
@@ -370,18 +325,12 @@
     <t>2016-09-07 00:30</t>
   </si>
   <si>
-    <t>CabeceirasdeBasto_06092016</t>
-  </si>
-  <si>
     <t>2016-09-06 04:00</t>
   </si>
   <si>
     <t>2016-09-07 12:30</t>
   </si>
   <si>
-    <t>Caminha_09082016</t>
-  </si>
-  <si>
     <t>2016-08-09 17:00</t>
   </si>
   <si>
@@ -391,9 +340,6 @@
     <t>2016-08-11 23:00</t>
   </si>
   <si>
-    <t>CasteloBranco_13082017</t>
-  </si>
-  <si>
     <t>2017-08-13 12:30</t>
   </si>
   <si>
@@ -403,9 +349,6 @@
     <t>2017-08-15 23:00</t>
   </si>
   <si>
-    <t>CasteloBranco_23072017</t>
-  </si>
-  <si>
     <t>2017-07-23 18:00</t>
   </si>
   <si>
@@ -433,9 +376,6 @@
     <t>2017-07-28 02:00</t>
   </si>
   <si>
-    <t>CasteloBranco_29082020</t>
-  </si>
-  <si>
     <t>2020-08-29 17:30</t>
   </si>
   <si>
@@ -445,9 +385,6 @@
     <t>2020-08-29 21:30</t>
   </si>
   <si>
-    <t>CastroDaire_05102017</t>
-  </si>
-  <si>
     <t>2017-10-05 09:30</t>
   </si>
   <si>
@@ -457,18 +394,12 @@
     <t>2017-10-05 17:30</t>
   </si>
   <si>
-    <t>CastroDaire_07092020</t>
-  </si>
-  <si>
     <t>2020-09-07 05:30</t>
   </si>
   <si>
     <t>2020-09-07 09:00</t>
   </si>
   <si>
-    <t>CastroMarim_16082021</t>
-  </si>
-  <si>
     <t>2021-08-16 01:00</t>
   </si>
   <si>
@@ -499,9 +430,6 @@
     <t>2021-08-17 12:00</t>
   </si>
   <si>
-    <t>Chaves_30072020</t>
-  </si>
-  <si>
     <t>2020-07-30 14:00</t>
   </si>
   <si>
@@ -544,9 +472,6 @@
     <t>2016-08-08 02:30</t>
   </si>
   <si>
-    <t>FigueiradaFoz_15102017</t>
-  </si>
-  <si>
     <t>2017-10-15 14:30</t>
   </si>
   <si>
@@ -559,18 +484,12 @@
     <t>2017-10-17 04:00</t>
   </si>
   <si>
-    <t>FreixoEspadaaCinta_20082021</t>
-  </si>
-  <si>
     <t>2021-08-20 18:00</t>
   </si>
   <si>
     <t>2021-08-20 19:30</t>
   </si>
   <si>
-    <t>FreixodeEspadaaCinta_06092016</t>
-  </si>
-  <si>
     <t>2016-09-06 12:30</t>
   </si>
   <si>
@@ -694,9 +613,6 @@
     <t>2017-08-25 02:00</t>
   </si>
   <si>
-    <t>IdanhaaNova_30062020</t>
-  </si>
-  <si>
     <t>2020-06-30 17:30</t>
   </si>
   <si>
@@ -721,9 +637,6 @@
     <t>2017-10-16 08:00</t>
   </si>
   <si>
-    <t>MirandadoCorvo_13092019</t>
-  </si>
-  <si>
     <t>2019-09-13 18:30</t>
   </si>
   <si>
@@ -925,9 +838,6 @@
     <t>2020-07-27 01:00</t>
   </si>
   <si>
-    <t>OliveiraFrades_07092020</t>
-  </si>
-  <si>
     <t>2020-09-07 11:30</t>
   </si>
   <si>
@@ -940,9 +850,6 @@
     <t>2020-09-08 11:30</t>
   </si>
   <si>
-    <t>OliveiraFrades_15102017</t>
-  </si>
-  <si>
     <t>2017-10-16 03:00</t>
   </si>
   <si>
@@ -961,9 +868,6 @@
     <t>2019-06-10 18:30</t>
   </si>
   <si>
-    <t>PampilhosadaSerra_06102017</t>
-  </si>
-  <si>
     <t>2017-10-06 23:30</t>
   </si>
   <si>
@@ -988,9 +892,6 @@
     <t>2017-10-09 19:30</t>
   </si>
   <si>
-    <t>ParedesdeCoura_07082016</t>
-  </si>
-  <si>
     <t>2016-08-07 17:00</t>
   </si>
   <si>
@@ -1048,18 +949,12 @@
     <t>2017-10-07 00:00</t>
   </si>
   <si>
-    <t>PontedeLima_08082016</t>
-  </si>
-  <si>
     <t>2016-08-08 17:00</t>
   </si>
   <si>
     <t>2016-08-09 15:30</t>
   </si>
   <si>
-    <t>PortoMos_06092020</t>
-  </si>
-  <si>
     <t>2020-09-06 02:00</t>
   </si>
   <si>
@@ -1081,9 +976,6 @@
     <t>2020-09-07 13:30</t>
   </si>
   <si>
-    <t>ProencaaNova_13092020</t>
-  </si>
-  <si>
     <t>2020-09-13 13:30</t>
   </si>
   <si>
@@ -1108,9 +1000,6 @@
     <t>2017-08-21 04:00</t>
   </si>
   <si>
-    <t>RibeiradePena_15082017</t>
-  </si>
-  <si>
     <t>2017-08-15 15:00</t>
   </si>
   <si>
@@ -1126,9 +1015,6 @@
     <t>2019-08-29 19:00</t>
   </si>
   <si>
-    <t>SaoJoaoPesqueira_10072020</t>
-  </si>
-  <si>
     <t>2020-07-10 14:00</t>
   </si>
   <si>
@@ -1234,9 +1120,6 @@
     <t>2017-07-27 22:00</t>
   </si>
   <si>
-    <t>SeverdoVouga_09082016</t>
-  </si>
-  <si>
     <t>2016-08-10 01:00</t>
   </si>
   <si>
@@ -1273,9 +1156,6 @@
     <t>2019-08-03 20:30</t>
   </si>
   <si>
-    <t>TorredeMoncorvo_18072017</t>
-  </si>
-  <si>
     <t>2017-07-18 14:00</t>
   </si>
   <si>
@@ -1303,18 +1183,12 @@
     <t>2019-09-13 21:30</t>
   </si>
   <si>
-    <t>VieiradoMinho_10082016</t>
-  </si>
-  <si>
     <t>2016-08-10 10:00</t>
   </si>
   <si>
     <t>2016-08-11 08:30</t>
   </si>
   <si>
-    <t>VilaNovadeCerveira_08082015</t>
-  </si>
-  <si>
     <t>2015-08-08 12:00</t>
   </si>
   <si>
@@ -1327,9 +1201,6 @@
     <t>2015-08-09 19:00</t>
   </si>
   <si>
-    <t>ViladeRei_20072019</t>
-  </si>
-  <si>
     <t>2019-07-20 14:30</t>
   </si>
   <si>
@@ -1352,12 +1223,123 @@
   </si>
   <si>
     <t>2019-07-22 20:30</t>
+  </si>
+  <si>
+    <t>Abrantes</t>
+  </si>
+  <si>
+    <t>Agueda</t>
+  </si>
+  <si>
+    <t>Alcobaca</t>
+  </si>
+  <si>
+    <t>Alijo</t>
+  </si>
+  <si>
+    <t>Aljezur</t>
+  </si>
+  <si>
+    <t>Alvaiazere</t>
+  </si>
+  <si>
+    <t>Anadia</t>
+  </si>
+  <si>
+    <t>Arcos de Valdevez</t>
+  </si>
+  <si>
+    <t>Arganil</t>
+  </si>
+  <si>
+    <t>Arouca</t>
+  </si>
+  <si>
+    <t>Avis</t>
+  </si>
+  <si>
+    <t>Baiao</t>
+  </si>
+  <si>
+    <t>Boticas</t>
+  </si>
+  <si>
+    <t>Cabeceiras de Basto</t>
+  </si>
+  <si>
+    <t>Caminha</t>
+  </si>
+  <si>
+    <t>Castelo Branco</t>
+  </si>
+  <si>
+    <t>Castro Daire</t>
+  </si>
+  <si>
+    <t>CastroDaire</t>
+  </si>
+  <si>
+    <t>Castro Marim</t>
+  </si>
+  <si>
+    <t>Chaves</t>
+  </si>
+  <si>
+    <t>Figueira da Foz</t>
+  </si>
+  <si>
+    <t>Freixo de Espada a Cinta</t>
+  </si>
+  <si>
+    <t>Idanha a Nova</t>
+  </si>
+  <si>
+    <t>Miranda do Corvo</t>
+  </si>
+  <si>
+    <t>Oliveira de Frades</t>
+  </si>
+  <si>
+    <t>Pampilhosa da Serra</t>
+  </si>
+  <si>
+    <t>Paredes de Coura</t>
+  </si>
+  <si>
+    <t>Ponte de Lima</t>
+  </si>
+  <si>
+    <t>Porto de Mos</t>
+  </si>
+  <si>
+    <t>Proenca a Nova</t>
+  </si>
+  <si>
+    <t>Ribeira de Pena</t>
+  </si>
+  <si>
+    <t>Sao Joao da Pesqueira</t>
+  </si>
+  <si>
+    <t>Sever do Vouga</t>
+  </si>
+  <si>
+    <t>Vila de Rei</t>
+  </si>
+  <si>
+    <t>Torre de Moncorvo</t>
+  </si>
+  <si>
+    <t>Vieira do Minho</t>
+  </si>
+  <si>
+    <t>Vila Nova de Cerveira</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
@@ -2196,10 +2178,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B265" sqref="B265:B266"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2280,7 +2264,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -2289,10 +2273,10 @@
         <v>2017</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G2" s="1">
         <v>3</v>
@@ -2336,7 +2320,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -2345,10 +2329,10 @@
         <v>2017</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
@@ -2392,7 +2376,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -2401,10 +2385,10 @@
         <v>2017</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -2448,7 +2432,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -2457,10 +2441,10 @@
         <v>2017</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -2504,7 +2488,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -2513,10 +2497,10 @@
         <v>2017</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
@@ -2560,7 +2544,7 @@
         <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>401</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -2569,10 +2553,10 @@
         <v>2019</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
@@ -2616,7 +2600,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>401</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -2625,10 +2609,10 @@
         <v>2019</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
@@ -2672,7 +2656,7 @@
         <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>401</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -2681,10 +2665,10 @@
         <v>2019</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
@@ -2728,7 +2712,7 @@
         <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>401</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
@@ -2737,10 +2721,10 @@
         <v>2019</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
@@ -2784,7 +2768,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>401</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -2793,10 +2777,10 @@
         <v>2016</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -2840,7 +2824,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>401</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -2849,10 +2833,10 @@
         <v>2016</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -2896,7 +2880,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>401</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -2905,10 +2889,10 @@
         <v>2016</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -2952,7 +2936,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>401</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
@@ -2961,10 +2945,10 @@
         <v>2016</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -3008,7 +2992,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>401</v>
       </c>
       <c r="C15" s="1">
         <v>5</v>
@@ -3017,10 +3001,10 @@
         <v>2016</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -3064,7 +3048,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>401</v>
       </c>
       <c r="C16" s="1">
         <v>6</v>
@@ -3073,10 +3057,10 @@
         <v>2016</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -3120,7 +3104,7 @@
         <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>401</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -3129,10 +3113,10 @@
         <v>2017</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G17" s="1">
         <v>3</v>
@@ -3176,7 +3160,7 @@
         <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>401</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
@@ -3185,10 +3169,10 @@
         <v>2017</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G18" s="1">
         <v>3</v>
@@ -3232,7 +3216,7 @@
         <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>401</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
@@ -3241,10 +3225,10 @@
         <v>2017</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G19" s="1">
         <v>3</v>
@@ -3288,7 +3272,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>402</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -3297,10 +3281,10 @@
         <v>2017</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G20" s="1">
         <v>4</v>
@@ -3344,7 +3328,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>402</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -3353,10 +3337,10 @@
         <v>2017</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G21" s="1">
         <v>4</v>
@@ -3400,7 +3384,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>402</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
@@ -3409,10 +3393,10 @@
         <v>2017</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G22" s="1">
         <v>4</v>
@@ -3456,7 +3440,7 @@
         <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>403</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -3465,10 +3449,10 @@
         <v>2019</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G23" s="1">
         <v>5</v>
@@ -3512,7 +3496,7 @@
         <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>403</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -3521,10 +3505,10 @@
         <v>2019</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G24" s="1">
         <v>5</v>
@@ -3568,7 +3552,7 @@
         <v>69</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>404</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -3577,10 +3561,10 @@
         <v>2020</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G25" s="1">
         <v>5</v>
@@ -3624,7 +3608,7 @@
         <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>404</v>
       </c>
       <c r="C26" s="1">
         <v>2</v>
@@ -3633,10 +3617,10 @@
         <v>2020</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G26" s="1">
         <v>5</v>
@@ -3680,7 +3664,7 @@
         <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>404</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
@@ -3689,10 +3673,10 @@
         <v>2020</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G27" s="1">
         <v>5</v>
@@ -3736,7 +3720,7 @@
         <v>69</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>404</v>
       </c>
       <c r="C28" s="1">
         <v>4</v>
@@ -3745,10 +3729,10 @@
         <v>2020</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G28" s="1">
         <v>5</v>
@@ -3792,7 +3776,7 @@
         <v>41</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>405</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -3801,10 +3785,10 @@
         <v>2017</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G29" s="1">
         <v>2</v>
@@ -3848,7 +3832,7 @@
         <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>405</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
@@ -3857,10 +3841,10 @@
         <v>2017</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G30" s="1">
         <v>2</v>
@@ -3904,7 +3888,7 @@
         <v>41</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>405</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
@@ -3913,10 +3897,10 @@
         <v>2017</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G31" s="1">
         <v>2</v>
@@ -3960,7 +3944,7 @@
         <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>405</v>
       </c>
       <c r="C32" s="1">
         <v>4</v>
@@ -3969,10 +3953,10 @@
         <v>2017</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G32" s="1">
         <v>2</v>
@@ -4016,7 +4000,7 @@
         <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>405</v>
       </c>
       <c r="C33" s="1">
         <v>5</v>
@@ -4025,10 +4009,10 @@
         <v>2017</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G33" s="1">
         <v>2</v>
@@ -4072,7 +4056,7 @@
         <v>41</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>405</v>
       </c>
       <c r="C34" s="1">
         <v>6</v>
@@ -4081,10 +4065,10 @@
         <v>2017</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G34" s="1">
         <v>2</v>
@@ -4128,7 +4112,7 @@
         <v>41</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>62</v>
+        <v>405</v>
       </c>
       <c r="C35" s="1">
         <v>7</v>
@@ -4137,10 +4121,10 @@
         <v>2017</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G35" s="1">
         <v>2</v>
@@ -4184,7 +4168,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>62</v>
+        <v>405</v>
       </c>
       <c r="C36" s="1">
         <v>8</v>
@@ -4193,10 +4177,10 @@
         <v>2017</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G36" s="1">
         <v>2</v>
@@ -4240,7 +4224,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>406</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -4249,10 +4233,10 @@
         <v>2016</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G37" s="1">
         <v>2</v>
@@ -4296,7 +4280,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>406</v>
       </c>
       <c r="C38" s="1">
         <v>2</v>
@@ -4305,10 +4289,10 @@
         <v>2016</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G38" s="1">
         <v>2</v>
@@ -4352,7 +4336,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>406</v>
       </c>
       <c r="C39" s="1">
         <v>3</v>
@@ -4361,10 +4345,10 @@
         <v>2016</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G39" s="1">
         <v>2</v>
@@ -4408,7 +4392,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>75</v>
+        <v>406</v>
       </c>
       <c r="C40" s="1">
         <v>4</v>
@@ -4417,10 +4401,10 @@
         <v>2016</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G40" s="1">
         <v>2</v>
@@ -4464,7 +4448,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>407</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -4473,10 +4457,10 @@
         <v>2016</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
@@ -4520,7 +4504,7 @@
         <v>6</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>80</v>
+        <v>407</v>
       </c>
       <c r="C42" s="1">
         <v>2</v>
@@ -4529,10 +4513,10 @@
         <v>2016</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
@@ -4576,7 +4560,7 @@
         <v>6</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>80</v>
+        <v>407</v>
       </c>
       <c r="C43" s="1">
         <v>3</v>
@@ -4585,10 +4569,10 @@
         <v>2016</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G43" s="1">
         <v>1</v>
@@ -4632,7 +4616,7 @@
         <v>6</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>80</v>
+        <v>407</v>
       </c>
       <c r="C44" s="1">
         <v>4</v>
@@ -4641,10 +4625,10 @@
         <v>2016</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G44" s="1">
         <v>1</v>
@@ -4688,7 +4672,7 @@
         <v>6</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>80</v>
+        <v>407</v>
       </c>
       <c r="C45" s="1">
         <v>5</v>
@@ -4697,10 +4681,10 @@
         <v>2016</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G45" s="1">
         <v>1</v>
@@ -4744,7 +4728,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>80</v>
+        <v>407</v>
       </c>
       <c r="C46" s="1">
         <v>6</v>
@@ -4753,10 +4737,10 @@
         <v>2016</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G46" s="1">
         <v>1</v>
@@ -4800,7 +4784,7 @@
         <v>6</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>80</v>
+        <v>407</v>
       </c>
       <c r="C47" s="1">
         <v>7</v>
@@ -4809,10 +4793,10 @@
         <v>2016</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
@@ -4856,7 +4840,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>87</v>
+        <v>408</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -4865,10 +4849,10 @@
         <v>2017</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G48" s="1">
         <v>3</v>
@@ -4912,7 +4896,7 @@
         <v>39</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>87</v>
+        <v>408</v>
       </c>
       <c r="C49" s="1">
         <v>2</v>
@@ -4921,10 +4905,10 @@
         <v>2017</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G49" s="1">
         <v>3</v>
@@ -4968,7 +4952,7 @@
         <v>39</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>87</v>
+        <v>408</v>
       </c>
       <c r="C50" s="1">
         <v>3</v>
@@ -4977,10 +4961,10 @@
         <v>2017</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G50" s="1">
         <v>3</v>
@@ -5024,7 +5008,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>91</v>
+        <v>409</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -5033,10 +5017,10 @@
         <v>2016</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G51" s="1">
         <v>2</v>
@@ -5080,7 +5064,7 @@
         <v>7</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>91</v>
+        <v>409</v>
       </c>
       <c r="C52" s="1">
         <v>2</v>
@@ -5089,10 +5073,10 @@
         <v>2016</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="G52" s="1">
         <v>2</v>
@@ -5136,7 +5120,7 @@
         <v>7</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>91</v>
+        <v>409</v>
       </c>
       <c r="C53" s="1">
         <v>3</v>
@@ -5145,10 +5129,10 @@
         <v>2016</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G53" s="1">
         <v>2</v>
@@ -5192,7 +5176,7 @@
         <v>7</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>91</v>
+        <v>409</v>
       </c>
       <c r="C54" s="1">
         <v>4</v>
@@ -5201,10 +5185,10 @@
         <v>2016</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G54" s="1">
         <v>2</v>
@@ -5248,7 +5232,7 @@
         <v>7</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>91</v>
+        <v>409</v>
       </c>
       <c r="C55" s="1">
         <v>5</v>
@@ -5257,10 +5241,10 @@
         <v>2016</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G55" s="1">
         <v>2</v>
@@ -5304,7 +5288,7 @@
         <v>7</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>91</v>
+        <v>409</v>
       </c>
       <c r="C56" s="1">
         <v>6</v>
@@ -5313,10 +5297,10 @@
         <v>2016</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G56" s="1">
         <v>2</v>
@@ -5360,7 +5344,7 @@
         <v>7</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>91</v>
+        <v>409</v>
       </c>
       <c r="C57" s="1">
         <v>7</v>
@@ -5369,10 +5353,10 @@
         <v>2016</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G57" s="1">
         <v>2</v>
@@ -5416,7 +5400,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>91</v>
+        <v>409</v>
       </c>
       <c r="C58" s="1">
         <v>8</v>
@@ -5425,10 +5409,10 @@
         <v>2016</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G58" s="1">
         <v>2</v>
@@ -5472,7 +5456,7 @@
         <v>7</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>91</v>
+        <v>409</v>
       </c>
       <c r="C59" s="1">
         <v>9</v>
@@ -5481,10 +5465,10 @@
         <v>2016</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G59" s="1">
         <v>2</v>
@@ -5528,7 +5512,7 @@
         <v>63</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>102</v>
+        <v>410</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -5537,10 +5521,10 @@
         <v>2020</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G60" s="1">
         <v>5</v>
@@ -5584,7 +5568,7 @@
         <v>63</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>102</v>
+        <v>410</v>
       </c>
       <c r="C61" s="1">
         <v>2</v>
@@ -5593,10 +5577,10 @@
         <v>2020</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G61" s="1">
         <v>5</v>
@@ -5640,7 +5624,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>106</v>
+        <v>411</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -5649,10 +5633,10 @@
         <v>2019</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="G62" s="1">
         <v>3</v>
@@ -5696,7 +5680,7 @@
         <v>50</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>106</v>
+        <v>411</v>
       </c>
       <c r="C63" s="1">
         <v>2</v>
@@ -5705,10 +5689,10 @@
         <v>2019</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="G63" s="1">
         <v>3</v>
@@ -5752,7 +5736,7 @@
         <v>8</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>110</v>
+        <v>412</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -5761,10 +5745,10 @@
         <v>2016</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G64" s="1">
         <v>3</v>
@@ -5808,7 +5792,7 @@
         <v>8</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>110</v>
+        <v>412</v>
       </c>
       <c r="C65" s="1">
         <v>2</v>
@@ -5817,10 +5801,10 @@
         <v>2016</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="G65" s="1">
         <v>3</v>
@@ -5864,7 +5848,7 @@
         <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>115</v>
+        <v>413</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -5873,10 +5857,10 @@
         <v>2016</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="G66" s="1">
         <v>2</v>
@@ -5920,7 +5904,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>115</v>
+        <v>413</v>
       </c>
       <c r="C67" s="1">
         <v>2</v>
@@ -5929,10 +5913,10 @@
         <v>2016</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="G67" s="1">
         <v>2</v>
@@ -5976,7 +5960,7 @@
         <v>9</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>115</v>
+        <v>413</v>
       </c>
       <c r="C68" s="1">
         <v>3</v>
@@ -5985,10 +5969,10 @@
         <v>2016</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="G68" s="1">
         <v>2</v>
@@ -6032,7 +6016,7 @@
         <v>10</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>118</v>
+        <v>414</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -6041,10 +6025,10 @@
         <v>2016</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G69" s="1">
         <v>1</v>
@@ -6088,7 +6072,7 @@
         <v>10</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>118</v>
+        <v>414</v>
       </c>
       <c r="C70" s="1">
         <v>2</v>
@@ -6097,10 +6081,10 @@
         <v>2016</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G70" s="1">
         <v>1</v>
@@ -6144,7 +6128,7 @@
         <v>10</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>118</v>
+        <v>414</v>
       </c>
       <c r="C71" s="1">
         <v>3</v>
@@ -6153,10 +6137,10 @@
         <v>2016</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G71" s="1">
         <v>1</v>
@@ -6200,7 +6184,7 @@
         <v>10</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>118</v>
+        <v>414</v>
       </c>
       <c r="C72" s="1">
         <v>4</v>
@@ -6209,10 +6193,10 @@
         <v>2016</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="G72" s="1">
         <v>1</v>
@@ -6256,7 +6240,7 @@
         <v>32</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
@@ -6265,10 +6249,10 @@
         <v>2017</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="G73" s="1">
         <v>2</v>
@@ -6312,7 +6296,7 @@
         <v>32</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="C74" s="1">
         <v>2</v>
@@ -6321,10 +6305,10 @@
         <v>2017</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G74" s="1">
         <v>2</v>
@@ -6368,7 +6352,7 @@
         <v>32</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="C75" s="1">
         <v>3</v>
@@ -6377,10 +6361,10 @@
         <v>2017</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G75" s="1">
         <v>2</v>
@@ -6424,7 +6408,7 @@
         <v>32</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="C76" s="1">
         <v>4</v>
@@ -6433,10 +6417,10 @@
         <v>2017</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="G76" s="1">
         <v>2</v>
@@ -6480,7 +6464,7 @@
         <v>32</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="C77" s="1">
         <v>5</v>
@@ -6489,10 +6473,10 @@
         <v>2017</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="G77" s="1">
         <v>2</v>
@@ -6536,7 +6520,7 @@
         <v>30</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>126</v>
+        <v>415</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -6545,10 +6529,10 @@
         <v>2017</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G78" s="1">
         <v>3</v>
@@ -6592,7 +6576,7 @@
         <v>30</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>126</v>
+        <v>415</v>
       </c>
       <c r="C79" s="1">
         <v>2</v>
@@ -6601,10 +6585,10 @@
         <v>2017</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="G79" s="1">
         <v>3</v>
@@ -6648,7 +6632,7 @@
         <v>30</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>126</v>
+        <v>415</v>
       </c>
       <c r="C80" s="1">
         <v>3</v>
@@ -6657,10 +6641,10 @@
         <v>2017</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="G80" s="1">
         <v>3</v>
@@ -6704,7 +6688,7 @@
         <v>30</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>126</v>
+        <v>415</v>
       </c>
       <c r="C81" s="1">
         <v>4</v>
@@ -6713,10 +6697,10 @@
         <v>2017</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="G81" s="1">
         <v>3</v>
@@ -6760,7 +6744,7 @@
         <v>30</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>126</v>
+        <v>415</v>
       </c>
       <c r="C82" s="1">
         <v>5</v>
@@ -6769,10 +6753,10 @@
         <v>2017</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="G82" s="1">
         <v>3</v>
@@ -6816,7 +6800,7 @@
         <v>74</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>136</v>
+        <v>415</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
@@ -6825,10 +6809,10 @@
         <v>2020</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="G83" s="1">
         <v>4</v>
@@ -6872,7 +6856,7 @@
         <v>74</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>136</v>
+        <v>415</v>
       </c>
       <c r="C84" s="1">
         <v>2</v>
@@ -6881,10 +6865,10 @@
         <v>2020</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="G84" s="1">
         <v>4</v>
@@ -6928,7 +6912,7 @@
         <v>22</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>140</v>
+        <v>416</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
@@ -6937,10 +6921,10 @@
         <v>2017</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="G85" s="1">
         <v>2</v>
@@ -6984,7 +6968,7 @@
         <v>22</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>140</v>
+        <v>416</v>
       </c>
       <c r="C86" s="1">
         <v>2</v>
@@ -6993,10 +6977,10 @@
         <v>2017</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="G86" s="1">
         <v>2</v>
@@ -7040,7 +7024,7 @@
         <v>75</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>144</v>
+        <v>417</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
@@ -7049,10 +7033,10 @@
         <v>2020</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="G87" s="1">
         <v>4</v>
@@ -7096,7 +7080,7 @@
         <v>77</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>147</v>
+        <v>418</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -7105,10 +7089,10 @@
         <v>2021</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="G88" s="1">
         <v>5</v>
@@ -7152,7 +7136,7 @@
         <v>77</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>147</v>
+        <v>418</v>
       </c>
       <c r="C89" s="1">
         <v>2</v>
@@ -7161,10 +7145,10 @@
         <v>2021</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="G89" s="1">
         <v>5</v>
@@ -7208,7 +7192,7 @@
         <v>77</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>147</v>
+        <v>418</v>
       </c>
       <c r="C90" s="1">
         <v>3</v>
@@ -7217,10 +7201,10 @@
         <v>2021</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="G90" s="1">
         <v>5</v>
@@ -7264,7 +7248,7 @@
         <v>77</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>147</v>
+        <v>418</v>
       </c>
       <c r="C91" s="1">
         <v>4</v>
@@ -7273,10 +7257,10 @@
         <v>2021</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="G91" s="1">
         <v>5</v>
@@ -7320,7 +7304,7 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>147</v>
+        <v>418</v>
       </c>
       <c r="C92" s="1">
         <v>5</v>
@@ -7329,10 +7313,10 @@
         <v>2021</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="G92" s="1">
         <v>5</v>
@@ -7376,7 +7360,7 @@
         <v>77</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>147</v>
+        <v>418</v>
       </c>
       <c r="C93" s="1">
         <v>6</v>
@@ -7385,10 +7369,10 @@
         <v>2021</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="G93" s="1">
         <v>5</v>
@@ -7432,7 +7416,7 @@
         <v>71</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>158</v>
+        <v>419</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
@@ -7441,10 +7425,10 @@
         <v>2020</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="G94" s="1">
         <v>3</v>
@@ -7488,7 +7472,7 @@
         <v>71</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>158</v>
+        <v>419</v>
       </c>
       <c r="C95" s="1">
         <v>2</v>
@@ -7497,10 +7481,10 @@
         <v>2020</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="G95" s="1">
         <v>3</v>
@@ -7544,7 +7528,7 @@
         <v>71</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>158</v>
+        <v>419</v>
       </c>
       <c r="C96" s="1">
         <v>3</v>
@@ -7553,10 +7537,10 @@
         <v>2020</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="G96" s="1">
         <v>3</v>
@@ -7600,7 +7584,7 @@
         <v>11</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
@@ -7609,10 +7593,10 @@
         <v>2016</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="G97" s="1">
         <v>1</v>
@@ -7656,7 +7640,7 @@
         <v>11</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C98" s="1">
         <v>2</v>
@@ -7665,10 +7649,10 @@
         <v>2016</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="G98" s="1">
         <v>1</v>
@@ -7712,7 +7696,7 @@
         <v>11</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C99" s="1">
         <v>3</v>
@@ -7721,10 +7705,10 @@
         <v>2016</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="G99" s="1">
         <v>1</v>
@@ -7768,7 +7752,7 @@
         <v>12</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
@@ -7777,10 +7761,10 @@
         <v>2016</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G100" s="1">
         <v>2</v>
@@ -7824,7 +7808,7 @@
         <v>12</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C101" s="1">
         <v>2</v>
@@ -7833,10 +7817,10 @@
         <v>2016</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G101" s="1">
         <v>2</v>
@@ -7880,7 +7864,7 @@
         <v>35</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>173</v>
+        <v>420</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
@@ -7889,10 +7873,10 @@
         <v>2017</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="G102" s="1">
         <v>4</v>
@@ -7936,7 +7920,7 @@
         <v>35</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>173</v>
+        <v>420</v>
       </c>
       <c r="C103" s="1">
         <v>2</v>
@@ -7945,10 +7929,10 @@
         <v>2017</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G103" s="1">
         <v>4</v>
@@ -7992,7 +7976,7 @@
         <v>35</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>173</v>
+        <v>420</v>
       </c>
       <c r="C104" s="1">
         <v>3</v>
@@ -8001,10 +7985,10 @@
         <v>2017</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="G104" s="1">
         <v>4</v>
@@ -8048,7 +8032,7 @@
         <v>35</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>173</v>
+        <v>420</v>
       </c>
       <c r="C105" s="1">
         <v>4</v>
@@ -8057,10 +8041,10 @@
         <v>2017</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="G105" s="1">
         <v>4</v>
@@ -8104,7 +8088,7 @@
         <v>79</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>178</v>
+        <v>421</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
@@ -8113,10 +8097,10 @@
         <v>2021</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="G106" s="1">
         <v>4</v>
@@ -8160,7 +8144,7 @@
         <v>13</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>181</v>
+        <v>421</v>
       </c>
       <c r="C107" s="1">
         <v>1</v>
@@ -8169,10 +8153,10 @@
         <v>2016</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="G107" s="1">
         <v>3</v>
@@ -8216,7 +8200,7 @@
         <v>13</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>181</v>
+        <v>421</v>
       </c>
       <c r="C108" s="1">
         <v>2</v>
@@ -8225,10 +8209,10 @@
         <v>2016</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="G108" s="1">
         <v>3</v>
@@ -8272,7 +8256,7 @@
         <v>13</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>181</v>
+        <v>421</v>
       </c>
       <c r="C109" s="1">
         <v>3</v>
@@ -8281,10 +8265,10 @@
         <v>2016</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="G109" s="1">
         <v>3</v>
@@ -8328,7 +8312,7 @@
         <v>66</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="C110" s="1">
         <v>1</v>
@@ -8337,10 +8321,10 @@
         <v>2020</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="G110" s="1">
         <v>5</v>
@@ -8384,7 +8368,7 @@
         <v>66</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="C111" s="1">
         <v>2</v>
@@ -8393,10 +8377,10 @@
         <v>2020</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="G111" s="1">
         <v>5</v>
@@ -8440,7 +8424,7 @@
         <v>61</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="C112" s="1">
         <v>1</v>
@@ -8449,10 +8433,10 @@
         <v>2020</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="G112" s="1">
         <v>4</v>
@@ -8496,7 +8480,7 @@
         <v>61</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="C113" s="1">
         <v>2</v>
@@ -8505,10 +8489,10 @@
         <v>2020</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="G113" s="1">
         <v>4</v>
@@ -8552,7 +8536,7 @@
         <v>61</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="C114" s="1">
         <v>3</v>
@@ -8561,10 +8545,10 @@
         <v>2020</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="G114" s="1">
         <v>4</v>
@@ -8608,7 +8592,7 @@
         <v>37</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="C115" s="1">
         <v>1</v>
@@ -8617,10 +8601,10 @@
         <v>2017</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G115" s="1">
         <v>3</v>
@@ -8664,7 +8648,7 @@
         <v>37</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="C116" s="1">
         <v>2</v>
@@ -8673,10 +8657,10 @@
         <v>2017</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="G116" s="1">
         <v>3</v>
@@ -8720,7 +8704,7 @@
         <v>37</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="C117" s="1">
         <v>3</v>
@@ -8729,10 +8713,10 @@
         <v>2017</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="G117" s="1">
         <v>3</v>
@@ -8776,7 +8760,7 @@
         <v>37</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="C118" s="1">
         <v>4</v>
@@ -8785,10 +8769,10 @@
         <v>2017</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="G118" s="1">
         <v>3</v>
@@ -8832,7 +8816,7 @@
         <v>37</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="C119" s="1">
         <v>5</v>
@@ -8841,10 +8825,10 @@
         <v>2017</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="G119" s="1">
         <v>3</v>
@@ -8888,7 +8872,7 @@
         <v>37</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="C120" s="1">
         <v>6</v>
@@ -8897,10 +8881,10 @@
         <v>2017</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="G120" s="1">
         <v>3</v>
@@ -8944,7 +8928,7 @@
         <v>37</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="C121" s="1">
         <v>7</v>
@@ -8953,10 +8937,10 @@
         <v>2017</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="G121" s="1">
         <v>3</v>
@@ -9000,7 +8984,7 @@
         <v>37</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="C122" s="1">
         <v>8</v>
@@ -9009,10 +8993,10 @@
         <v>2017</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="G122" s="1">
         <v>3</v>
@@ -9056,7 +9040,7 @@
         <v>1</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="C123" s="1">
         <v>1</v>
@@ -9065,10 +9049,10 @@
         <v>2015</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="G123" s="1">
         <v>2</v>
@@ -9112,7 +9096,7 @@
         <v>1</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="C124" s="1">
         <v>2</v>
@@ -9121,10 +9105,10 @@
         <v>2015</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="G124" s="1">
         <v>2</v>
@@ -9168,7 +9152,7 @@
         <v>1</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="C125" s="1">
         <v>3</v>
@@ -9177,10 +9161,10 @@
         <v>2015</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="G125" s="1">
         <v>2</v>
@@ -9224,7 +9208,7 @@
         <v>1</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="C126" s="1">
         <v>4</v>
@@ -9233,10 +9217,10 @@
         <v>2015</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="G126" s="1">
         <v>2</v>
@@ -9280,7 +9264,7 @@
         <v>34</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="C127" s="1">
         <v>1</v>
@@ -9289,10 +9273,10 @@
         <v>2017</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="G127" s="1">
         <v>2</v>
@@ -9336,7 +9320,7 @@
         <v>34</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="C128" s="1">
         <v>2</v>
@@ -9345,10 +9329,10 @@
         <v>2017</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="G128" s="1">
         <v>2</v>
@@ -9392,7 +9376,7 @@
         <v>34</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="C129" s="1">
         <v>3</v>
@@ -9401,10 +9385,10 @@
         <v>2017</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="G129" s="1">
         <v>2</v>
@@ -9448,7 +9432,7 @@
         <v>27</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
@@ -9457,10 +9441,10 @@
         <v>2017</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="G130" s="1">
         <v>3</v>
@@ -9504,7 +9488,7 @@
         <v>27</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="C131" s="1">
         <v>2</v>
@@ -9513,10 +9497,10 @@
         <v>2017</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="G131" s="1">
         <v>3</v>
@@ -9560,7 +9544,7 @@
         <v>27</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="C132" s="1">
         <v>3</v>
@@ -9569,10 +9553,10 @@
         <v>2017</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="G132" s="1">
         <v>3</v>
@@ -9616,7 +9600,7 @@
         <v>27</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="C133" s="1">
         <v>4</v>
@@ -9625,10 +9609,10 @@
         <v>2017</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="G133" s="1">
         <v>3</v>
@@ -9672,7 +9656,7 @@
         <v>64</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>223</v>
+        <v>422</v>
       </c>
       <c r="C134" s="1">
         <v>1</v>
@@ -9681,10 +9665,10 @@
         <v>2020</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="G134" s="1">
         <v>4</v>
@@ -9728,7 +9712,7 @@
         <v>64</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>223</v>
+        <v>422</v>
       </c>
       <c r="C135" s="1">
         <v>2</v>
@@ -9737,10 +9721,10 @@
         <v>2020</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="G135" s="1">
         <v>4</v>
@@ -9784,7 +9768,7 @@
         <v>44</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="C136" s="1">
         <v>1</v>
@@ -9793,10 +9777,10 @@
         <v>2017</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="G136" s="1">
         <v>4</v>
@@ -9840,7 +9824,7 @@
         <v>44</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="C137" s="1">
         <v>2</v>
@@ -9849,10 +9833,10 @@
         <v>2017</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G137" s="1">
         <v>4</v>
@@ -9896,7 +9880,7 @@
         <v>44</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="C138" s="1">
         <v>3</v>
@@ -9905,10 +9889,10 @@
         <v>2017</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="G138" s="1">
         <v>4</v>
@@ -9952,7 +9936,7 @@
         <v>44</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="C139" s="1">
         <v>4</v>
@@ -9961,10 +9945,10 @@
         <v>2017</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G139" s="1">
         <v>4</v>
@@ -10008,7 +9992,7 @@
         <v>44</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="C140" s="1">
         <v>5</v>
@@ -10017,10 +10001,10 @@
         <v>2017</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="G140" s="1">
         <v>4</v>
@@ -10064,7 +10048,7 @@
         <v>44</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="C141" s="1">
         <v>6</v>
@@ -10073,10 +10057,10 @@
         <v>2017</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G141" s="1">
         <v>4</v>
@@ -10120,7 +10104,7 @@
         <v>44</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="C142" s="1">
         <v>7</v>
@@ -10129,10 +10113,10 @@
         <v>2017</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="G142" s="1">
         <v>4</v>
@@ -10176,7 +10160,7 @@
         <v>60</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>232</v>
+        <v>423</v>
       </c>
       <c r="C143" s="1">
         <v>1</v>
@@ -10185,10 +10169,10 @@
         <v>2019</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="G143" s="1">
         <v>3</v>
@@ -10232,7 +10216,7 @@
         <v>60</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>232</v>
+        <v>423</v>
       </c>
       <c r="C144" s="1">
         <v>2</v>
@@ -10241,10 +10225,10 @@
         <v>2019</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="G144" s="1">
         <v>3</v>
@@ -10288,7 +10272,7 @@
         <v>24</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="C145" s="1">
         <v>1</v>
@@ -10297,10 +10281,10 @@
         <v>2017</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="G145" s="1">
         <v>2</v>
@@ -10344,7 +10328,7 @@
         <v>24</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="C146" s="1">
         <v>2</v>
@@ -10353,10 +10337,10 @@
         <v>2017</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="G146" s="1">
         <v>2</v>
@@ -10400,7 +10384,7 @@
         <v>80</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="C147" s="1">
         <v>1</v>
@@ -10409,10 +10393,10 @@
         <v>2021</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="G147" s="1">
         <v>5</v>
@@ -10456,7 +10440,7 @@
         <v>80</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="C148" s="1">
         <v>2</v>
@@ -10465,10 +10449,10 @@
         <v>2021</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="G148" s="1">
         <v>5</v>
@@ -10512,7 +10496,7 @@
         <v>14</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="C149" s="1">
         <v>1</v>
@@ -10521,10 +10505,10 @@
         <v>2016</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="G149" s="1">
         <v>2</v>
@@ -10568,7 +10552,7 @@
         <v>14</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="C150" s="1">
         <v>2</v>
@@ -10577,10 +10561,10 @@
         <v>2016</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="G150" s="1">
         <v>2</v>
@@ -10624,7 +10608,7 @@
         <v>14</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="C151" s="1">
         <v>3</v>
@@ -10633,10 +10617,10 @@
         <v>2016</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="G151" s="1">
         <v>2</v>
@@ -10680,7 +10664,7 @@
         <v>15</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="C152" s="1">
         <v>1</v>
@@ -10689,10 +10673,10 @@
         <v>2016</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="G152" s="1">
         <v>1</v>
@@ -10736,7 +10720,7 @@
         <v>15</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="C153" s="1">
         <v>2</v>
@@ -10745,10 +10729,10 @@
         <v>2016</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="G153" s="1">
         <v>1</v>
@@ -10792,7 +10776,7 @@
         <v>15</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="C154" s="1">
         <v>3</v>
@@ -10801,10 +10785,10 @@
         <v>2016</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G154" s="1">
         <v>1</v>
@@ -10848,7 +10832,7 @@
         <v>47</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="C155" s="1">
         <v>1</v>
@@ -10857,10 +10841,10 @@
         <v>2018</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="G155" s="1">
         <v>3</v>
@@ -10904,7 +10888,7 @@
         <v>47</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="C156" s="1">
         <v>2</v>
@@ -10913,10 +10897,10 @@
         <v>2018</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="G156" s="1">
         <v>3</v>
@@ -10960,7 +10944,7 @@
         <v>47</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="C157" s="1">
         <v>3</v>
@@ -10969,10 +10953,10 @@
         <v>2018</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="G157" s="1">
         <v>3</v>
@@ -11016,7 +11000,7 @@
         <v>47</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="C158" s="1">
         <v>4</v>
@@ -11025,10 +11009,10 @@
         <v>2018</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="G158" s="1">
         <v>3</v>
@@ -11072,7 +11056,7 @@
         <v>47</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="C159" s="1">
         <v>5</v>
@@ -11081,10 +11065,10 @@
         <v>2018</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="G159" s="1">
         <v>3</v>
@@ -11128,7 +11112,7 @@
         <v>47</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="C160" s="1">
         <v>6</v>
@@ -11137,10 +11121,10 @@
         <v>2018</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="G160" s="1">
         <v>3</v>
@@ -11184,7 +11168,7 @@
         <v>47</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="C161" s="1">
         <v>7</v>
@@ -11193,10 +11177,10 @@
         <v>2018</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="G161" s="1">
         <v>3</v>
@@ -11240,7 +11224,7 @@
         <v>47</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="C162" s="1">
         <v>8</v>
@@ -11249,10 +11233,10 @@
         <v>2018</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="G162" s="1">
         <v>3</v>
@@ -11296,7 +11280,7 @@
         <v>47</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="C163" s="1">
         <v>9</v>
@@ -11305,10 +11289,10 @@
         <v>2018</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="G163" s="1">
         <v>3</v>
@@ -11352,7 +11336,7 @@
         <v>78</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="C164" s="1">
         <v>1</v>
@@ -11361,10 +11345,10 @@
         <v>2021</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="G164" s="1">
         <v>4</v>
@@ -11408,7 +11392,7 @@
         <v>78</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="C165" s="1">
         <v>2</v>
@@ -11417,10 +11401,10 @@
         <v>2021</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="G165" s="1">
         <v>4</v>
@@ -11464,7 +11448,7 @@
         <v>23</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="C166" s="1">
         <v>1</v>
@@ -11473,10 +11457,10 @@
         <v>2017</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="G166" s="1">
         <v>2</v>
@@ -11520,7 +11504,7 @@
         <v>51</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="C167" s="1">
         <v>1</v>
@@ -11529,10 +11513,10 @@
         <v>2019</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="G167" s="1">
         <v>5</v>
@@ -11576,7 +11560,7 @@
         <v>51</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="C168" s="1">
         <v>2</v>
@@ -11585,10 +11569,10 @@
         <v>2019</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="G168" s="1">
         <v>5</v>
@@ -11632,7 +11616,7 @@
         <v>76</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="C169" s="1">
         <v>1</v>
@@ -11641,10 +11625,10 @@
         <v>2021</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="G169" s="1">
         <v>5</v>
@@ -11688,7 +11672,7 @@
         <v>76</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="C170" s="1">
         <v>2</v>
@@ -11697,10 +11681,10 @@
         <v>2021</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="G170" s="1">
         <v>5</v>
@@ -11744,7 +11728,7 @@
         <v>76</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="C171" s="1">
         <v>3</v>
@@ -11753,10 +11737,10 @@
         <v>2021</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="G171" s="1">
         <v>5</v>
@@ -11800,7 +11784,7 @@
         <v>2</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="C172" s="1">
         <v>1</v>
@@ -11809,10 +11793,10 @@
         <v>2015</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="G172" s="1">
         <v>2</v>
@@ -11856,7 +11840,7 @@
         <v>36</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="C173" s="1">
         <v>1</v>
@@ -11865,10 +11849,10 @@
         <v>2017</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="G173" s="1">
         <v>3</v>
@@ -11912,7 +11896,7 @@
         <v>36</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="C174" s="1">
         <v>2</v>
@@ -11921,10 +11905,10 @@
         <v>2017</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="G174" s="1">
         <v>3</v>
@@ -11968,7 +11952,7 @@
         <v>36</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="C175" s="1">
         <v>3</v>
@@ -11977,10 +11961,10 @@
         <v>2017</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="G175" s="1">
         <v>3</v>
@@ -12024,7 +12008,7 @@
         <v>72</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="C176" s="1">
         <v>1</v>
@@ -12033,10 +12017,10 @@
         <v>2020</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="G176" s="1">
         <v>3</v>
@@ -12080,7 +12064,7 @@
         <v>72</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="C177" s="1">
         <v>2</v>
@@ -12089,10 +12073,10 @@
         <v>2020</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="G177" s="1">
         <v>3</v>
@@ -12136,7 +12120,7 @@
         <v>72</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="C178" s="1">
         <v>3</v>
@@ -12145,10 +12129,10 @@
         <v>2020</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="G178" s="1">
         <v>3</v>
@@ -12192,7 +12176,7 @@
         <v>72</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="C179" s="1">
         <v>4</v>
@@ -12201,10 +12185,10 @@
         <v>2020</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="G179" s="1">
         <v>3</v>
@@ -12248,7 +12232,7 @@
         <v>72</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="C180" s="1">
         <v>5</v>
@@ -12257,10 +12241,10 @@
         <v>2020</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="G180" s="1">
         <v>3</v>
@@ -12304,7 +12288,7 @@
         <v>68</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>300</v>
+        <v>424</v>
       </c>
       <c r="C181" s="1">
         <v>1</v>
@@ -12313,10 +12297,10 @@
         <v>2020</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="G181" s="1">
         <v>3</v>
@@ -12360,7 +12344,7 @@
         <v>68</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>300</v>
+        <v>424</v>
       </c>
       <c r="C182" s="1">
         <v>2</v>
@@ -12369,10 +12353,10 @@
         <v>2020</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="G182" s="1">
         <v>3</v>
@@ -12416,7 +12400,7 @@
         <v>68</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>300</v>
+        <v>424</v>
       </c>
       <c r="C183" s="1">
         <v>3</v>
@@ -12425,10 +12409,10 @@
         <v>2020</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="G183" s="1">
         <v>3</v>
@@ -12472,7 +12456,7 @@
         <v>46</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>305</v>
+        <v>424</v>
       </c>
       <c r="C184" s="1">
         <v>1</v>
@@ -12481,10 +12465,10 @@
         <v>2017</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G184" s="1">
         <v>3</v>
@@ -12528,7 +12512,7 @@
         <v>46</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>305</v>
+        <v>424</v>
       </c>
       <c r="C185" s="1">
         <v>2</v>
@@ -12537,10 +12521,10 @@
         <v>2017</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="G185" s="1">
         <v>3</v>
@@ -12584,7 +12568,7 @@
         <v>46</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>305</v>
+        <v>424</v>
       </c>
       <c r="C186" s="1">
         <v>3</v>
@@ -12593,10 +12577,10 @@
         <v>2017</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="G186" s="1">
         <v>3</v>
@@ -12640,7 +12624,7 @@
         <v>46</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>305</v>
+        <v>424</v>
       </c>
       <c r="C187" s="1">
         <v>4</v>
@@ -12649,10 +12633,10 @@
         <v>2017</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="G187" s="1">
         <v>3</v>
@@ -12696,7 +12680,7 @@
         <v>52</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="C188" s="1">
         <v>1</v>
@@ -12705,10 +12689,10 @@
         <v>2019</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="G188" s="1">
         <v>5</v>
@@ -12752,7 +12736,7 @@
         <v>52</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="C189" s="1">
         <v>2</v>
@@ -12761,10 +12745,10 @@
         <v>2019</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="G189" s="1">
         <v>5</v>
@@ -12808,7 +12792,7 @@
         <v>33</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>312</v>
+        <v>425</v>
       </c>
       <c r="C190" s="1">
         <v>1</v>
@@ -12817,10 +12801,10 @@
         <v>2017</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="G190" s="1">
         <v>2</v>
@@ -12864,7 +12848,7 @@
         <v>33</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>312</v>
+        <v>425</v>
       </c>
       <c r="C191" s="1">
         <v>2</v>
@@ -12873,10 +12857,10 @@
         <v>2017</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="G191" s="1">
         <v>2</v>
@@ -12920,7 +12904,7 @@
         <v>33</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>312</v>
+        <v>425</v>
       </c>
       <c r="C192" s="1">
         <v>3</v>
@@ -12929,10 +12913,10 @@
         <v>2017</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="G192" s="1">
         <v>2</v>
@@ -12976,7 +12960,7 @@
         <v>33</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>312</v>
+        <v>425</v>
       </c>
       <c r="C193" s="1">
         <v>4</v>
@@ -12985,10 +12969,10 @@
         <v>2017</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="G193" s="1">
         <v>2</v>
@@ -13032,7 +13016,7 @@
         <v>33</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>312</v>
+        <v>425</v>
       </c>
       <c r="C194" s="1">
         <v>5</v>
@@ -13041,10 +13025,10 @@
         <v>2017</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="G194" s="1">
         <v>2</v>
@@ -13088,7 +13072,7 @@
         <v>16</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>321</v>
+        <v>426</v>
       </c>
       <c r="C195" s="1">
         <v>1</v>
@@ -13097,10 +13081,10 @@
         <v>2016</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="G195" s="1">
         <v>2</v>
@@ -13144,7 +13128,7 @@
         <v>16</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>321</v>
+        <v>426</v>
       </c>
       <c r="C196" s="1">
         <v>2</v>
@@ -13153,10 +13137,10 @@
         <v>2016</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G196" s="1">
         <v>2</v>
@@ -13200,7 +13184,7 @@
         <v>16</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>321</v>
+        <v>426</v>
       </c>
       <c r="C197" s="1">
         <v>3</v>
@@ -13209,10 +13193,10 @@
         <v>2016</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G197" s="1">
         <v>2</v>
@@ -13256,7 +13240,7 @@
         <v>16</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>321</v>
+        <v>426</v>
       </c>
       <c r="C198" s="1">
         <v>4</v>
@@ -13265,10 +13249,10 @@
         <v>2016</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="G198" s="1">
         <v>2</v>
@@ -13312,7 +13296,7 @@
         <v>16</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>321</v>
+        <v>426</v>
       </c>
       <c r="C199" s="1">
         <v>5</v>
@@ -13321,10 +13305,10 @@
         <v>2016</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G199" s="1">
         <v>2</v>
@@ -13368,7 +13352,7 @@
         <v>16</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>321</v>
+        <v>426</v>
       </c>
       <c r="C200" s="1">
         <v>6</v>
@@ -13377,10 +13361,10 @@
         <v>2016</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G200" s="1">
         <v>2</v>
@@ -13424,7 +13408,7 @@
         <v>16</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>321</v>
+        <v>426</v>
       </c>
       <c r="C201" s="1">
         <v>7</v>
@@ -13433,10 +13417,10 @@
         <v>2016</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="G201" s="1">
         <v>2</v>
@@ -13480,7 +13464,7 @@
         <v>42</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="C202" s="1">
         <v>1</v>
@@ -13489,10 +13473,10 @@
         <v>2017</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="G202" s="1">
         <v>4</v>
@@ -13536,7 +13520,7 @@
         <v>42</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="C203" s="1">
         <v>2</v>
@@ -13545,10 +13529,10 @@
         <v>2017</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="G203" s="1">
         <v>4</v>
@@ -13592,7 +13576,7 @@
         <v>42</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="C204" s="1">
         <v>3</v>
@@ -13601,10 +13585,10 @@
         <v>2017</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="G204" s="1">
         <v>4</v>
@@ -13648,7 +13632,7 @@
         <v>42</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="C205" s="1">
         <v>4</v>
@@ -13657,10 +13641,10 @@
         <v>2017</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="G205" s="1">
         <v>4</v>
@@ -13704,7 +13688,7 @@
         <v>42</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="C206" s="1">
         <v>5</v>
@@ -13713,10 +13697,10 @@
         <v>2017</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="G206" s="1">
         <v>4</v>
@@ -13760,7 +13744,7 @@
         <v>42</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="C207" s="1">
         <v>6</v>
@@ -13769,10 +13753,10 @@
         <v>2017</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="G207" s="1">
         <v>4</v>
@@ -13816,7 +13800,7 @@
         <v>53</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="C208" s="1">
         <v>1</v>
@@ -13825,10 +13809,10 @@
         <v>2019</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="G208" s="1">
         <v>4</v>
@@ -13872,7 +13856,7 @@
         <v>53</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="C209" s="1">
         <v>2</v>
@@ -13881,10 +13865,10 @@
         <v>2019</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="G209" s="1">
         <v>4</v>
@@ -13928,7 +13912,7 @@
         <v>25</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="C210" s="1">
         <v>1</v>
@@ -13937,10 +13921,10 @@
         <v>2017</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="G210" s="1">
         <v>2</v>
@@ -13984,7 +13968,7 @@
         <v>17</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>341</v>
+        <v>427</v>
       </c>
       <c r="C211" s="1">
         <v>1</v>
@@ -13993,10 +13977,10 @@
         <v>2016</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G211" s="1">
         <v>1</v>
@@ -14040,7 +14024,7 @@
         <v>17</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>341</v>
+        <v>427</v>
       </c>
       <c r="C212" s="1">
         <v>2</v>
@@ -14049,10 +14033,10 @@
         <v>2016</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="G212" s="1">
         <v>1</v>
@@ -14096,7 +14080,7 @@
         <v>67</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>344</v>
+        <v>428</v>
       </c>
       <c r="C213" s="1">
         <v>1</v>
@@ -14105,10 +14089,10 @@
         <v>2020</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="G213" s="1">
         <v>4</v>
@@ -14152,7 +14136,7 @@
         <v>67</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>344</v>
+        <v>428</v>
       </c>
       <c r="C214" s="1">
         <v>2</v>
@@ -14161,10 +14145,10 @@
         <v>2020</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="G214" s="1">
         <v>4</v>
@@ -14208,7 +14192,7 @@
         <v>67</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>344</v>
+        <v>428</v>
       </c>
       <c r="C215" s="1">
         <v>3</v>
@@ -14217,10 +14201,10 @@
         <v>2020</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="G215" s="1">
         <v>4</v>
@@ -14264,7 +14248,7 @@
         <v>67</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>344</v>
+        <v>428</v>
       </c>
       <c r="C216" s="1">
         <v>4</v>
@@ -14273,10 +14257,10 @@
         <v>2020</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="G216" s="1">
         <v>4</v>
@@ -14320,7 +14304,7 @@
         <v>67</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>344</v>
+        <v>428</v>
       </c>
       <c r="C217" s="1">
         <v>5</v>
@@ -14329,10 +14313,10 @@
         <v>2020</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="G217" s="1">
         <v>4</v>
@@ -14376,7 +14360,7 @@
         <v>73</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>352</v>
+        <v>429</v>
       </c>
       <c r="C218" s="1">
         <v>1</v>
@@ -14385,10 +14369,10 @@
         <v>2020</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="G218" s="1">
         <v>4</v>
@@ -14432,7 +14416,7 @@
         <v>73</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>352</v>
+        <v>429</v>
       </c>
       <c r="C219" s="1">
         <v>2</v>
@@ -14441,10 +14425,10 @@
         <v>2020</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="G219" s="1">
         <v>4</v>
@@ -14488,7 +14472,7 @@
         <v>73</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>352</v>
+        <v>429</v>
       </c>
       <c r="C220" s="1">
         <v>3</v>
@@ -14497,10 +14481,10 @@
         <v>2020</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="G220" s="1">
         <v>4</v>
@@ -14544,7 +14528,7 @@
         <v>20</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="C221" s="1">
         <v>1</v>
@@ -14553,10 +14537,10 @@
         <v>2017</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="G221" s="1">
         <v>1</v>
@@ -14600,7 +14584,7 @@
         <v>20</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="C222" s="1">
         <v>2</v>
@@ -14609,10 +14593,10 @@
         <v>2017</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="G222" s="1">
         <v>1</v>
@@ -14656,7 +14640,7 @@
         <v>20</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="C223" s="1">
         <v>3</v>
@@ -14665,10 +14649,10 @@
         <v>2017</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="G223" s="1">
         <v>1</v>
@@ -14712,7 +14696,7 @@
         <v>21</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>361</v>
+        <v>430</v>
       </c>
       <c r="C224" s="1">
         <v>1</v>
@@ -14721,10 +14705,10 @@
         <v>2017</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G224" s="1">
         <v>1</v>
@@ -14768,7 +14752,7 @@
         <v>54</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="C225" s="1">
         <v>1</v>
@@ -14777,10 +14761,10 @@
         <v>2019</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="G225" s="1">
         <v>5</v>
@@ -14824,7 +14808,7 @@
         <v>54</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="C226" s="1">
         <v>2</v>
@@ -14833,10 +14817,10 @@
         <v>2019</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="G226" s="1">
         <v>5</v>
@@ -14880,7 +14864,7 @@
         <v>65</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>367</v>
+        <v>431</v>
       </c>
       <c r="C227" s="1">
         <v>1</v>
@@ -14889,10 +14873,10 @@
         <v>2020</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="G227" s="1">
         <v>4</v>
@@ -14936,7 +14920,7 @@
         <v>65</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>367</v>
+        <v>431</v>
       </c>
       <c r="C228" s="1">
         <v>2</v>
@@ -14945,10 +14929,10 @@
         <v>2020</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="G228" s="1">
         <v>4</v>
@@ -14992,7 +14976,7 @@
         <v>65</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>367</v>
+        <v>431</v>
       </c>
       <c r="C229" s="1">
         <v>3</v>
@@ -15001,10 +14985,10 @@
         <v>2020</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="G229" s="1">
         <v>4</v>
@@ -15048,7 +15032,7 @@
         <v>70</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="C230" s="1">
         <v>1</v>
@@ -15057,10 +15041,10 @@
         <v>2020</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="G230" s="1">
         <v>5</v>
@@ -15104,7 +15088,7 @@
         <v>70</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="C231" s="1">
         <v>2</v>
@@ -15113,10 +15097,10 @@
         <v>2020</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="G231" s="1">
         <v>5</v>
@@ -15160,7 +15144,7 @@
         <v>28</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="C232" s="1">
         <v>1</v>
@@ -15169,10 +15153,10 @@
         <v>2017</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="G232" s="1">
         <v>3</v>
@@ -15216,7 +15200,7 @@
         <v>28</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="C233" s="1">
         <v>2</v>
@@ -15225,10 +15209,10 @@
         <v>2017</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="G233" s="1">
         <v>3</v>
@@ -15272,7 +15256,7 @@
         <v>55</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="C234" s="1">
         <v>1</v>
@@ -15281,10 +15265,10 @@
         <v>2019</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="G234" s="1">
         <v>4</v>
@@ -15328,7 +15312,7 @@
         <v>55</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="C235" s="1">
         <v>2</v>
@@ -15337,10 +15321,10 @@
         <v>2019</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="G235" s="1">
         <v>4</v>
@@ -15384,7 +15368,7 @@
         <v>55</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="C236" s="1">
         <v>3</v>
@@ -15393,10 +15377,10 @@
         <v>2019</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="G236" s="1">
         <v>4</v>
@@ -15440,7 +15424,7 @@
         <v>40</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="C237" s="1">
         <v>1</v>
@@ -15449,10 +15433,10 @@
         <v>2017</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="G237" s="1">
         <v>4</v>
@@ -15496,7 +15480,7 @@
         <v>40</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="C238" s="1">
         <v>2</v>
@@ -15505,10 +15489,10 @@
         <v>2017</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G238" s="1">
         <v>4</v>
@@ -15552,7 +15536,7 @@
         <v>40</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="C239" s="1">
         <v>3</v>
@@ -15561,10 +15545,10 @@
         <v>2017</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="G239" s="1">
         <v>4</v>
@@ -15608,7 +15592,7 @@
         <v>40</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="C240" s="1">
         <v>4</v>
@@ -15617,10 +15601,10 @@
         <v>2017</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="G240" s="1">
         <v>4</v>
@@ -15664,7 +15648,7 @@
         <v>31</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="C241" s="1">
         <v>1</v>
@@ -15673,10 +15657,10 @@
         <v>2017</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G241" s="1">
         <v>3</v>
@@ -15720,7 +15704,7 @@
         <v>31</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="C242" s="1">
         <v>2</v>
@@ -15729,10 +15713,10 @@
         <v>2017</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="G242" s="1">
         <v>3</v>
@@ -15776,7 +15760,7 @@
         <v>43</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="C243" s="1">
         <v>1</v>
@@ -15785,10 +15769,10 @@
         <v>2017</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G243" s="1">
         <v>3</v>
@@ -15832,7 +15816,7 @@
         <v>43</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="C244" s="1">
         <v>2</v>
@@ -15841,10 +15825,10 @@
         <v>2017</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="G244" s="1">
         <v>3</v>
@@ -15888,7 +15872,7 @@
         <v>43</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="C245" s="1">
         <v>3</v>
@@ -15897,10 +15881,10 @@
         <v>2017</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="G245" s="1">
         <v>3</v>
@@ -15944,7 +15928,7 @@
         <v>43</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="C246" s="1">
         <v>4</v>
@@ -15953,10 +15937,10 @@
         <v>2017</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="G246" s="1">
         <v>3</v>
@@ -16000,7 +15984,7 @@
         <v>43</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="C247" s="1">
         <v>5</v>
@@ -16009,10 +15993,10 @@
         <v>2017</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>402</v>
+        <v>364</v>
       </c>
       <c r="G247" s="1">
         <v>3</v>
@@ -16056,7 +16040,7 @@
         <v>18</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="C248" s="1">
         <v>1</v>
@@ -16065,10 +16049,10 @@
         <v>2016</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="G248" s="1">
         <v>3</v>
@@ -16112,7 +16096,7 @@
         <v>18</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="C249" s="1">
         <v>2</v>
@@ -16121,10 +16105,10 @@
         <v>2016</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G249" s="1">
         <v>3</v>
@@ -16168,7 +16152,7 @@
         <v>18</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="C250" s="1">
         <v>3</v>
@@ -16177,10 +16161,10 @@
         <v>2016</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G250" s="1">
         <v>3</v>
@@ -16224,7 +16208,7 @@
         <v>18</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="C251" s="1">
         <v>4</v>
@@ -16233,10 +16217,10 @@
         <v>2016</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G251" s="1">
         <v>3</v>
@@ -16280,7 +16264,7 @@
         <v>18</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="C252" s="1">
         <v>5</v>
@@ -16289,10 +16273,10 @@
         <v>2016</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="G252" s="1">
         <v>3</v>
@@ -16336,7 +16320,7 @@
         <v>62</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="C253" s="1">
         <v>1</v>
@@ -16345,10 +16329,10 @@
         <v>2020</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="G253" s="1">
         <v>4</v>
@@ -16392,7 +16376,7 @@
         <v>62</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="C254" s="1">
         <v>2</v>
@@ -16401,10 +16385,10 @@
         <v>2020</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="G254" s="1">
         <v>4</v>
@@ -16448,7 +16432,7 @@
         <v>56</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
       <c r="C255" s="1">
         <v>1</v>
@@ -16457,10 +16441,10 @@
         <v>2019</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="G255" s="1">
         <v>4</v>
@@ -16504,7 +16488,7 @@
         <v>56</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
       <c r="C256" s="1">
         <v>2</v>
@@ -16513,10 +16497,10 @@
         <v>2019</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="G256" s="1">
         <v>4</v>
@@ -16560,7 +16544,7 @@
         <v>26</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="C257" s="1">
         <v>1</v>
@@ -16569,10 +16553,10 @@
         <v>2017</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="G257" s="1">
         <v>3</v>
@@ -16616,7 +16600,7 @@
         <v>57</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="C258" s="1">
         <v>1</v>
@@ -16625,10 +16609,10 @@
         <v>2019</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="G258" s="1">
         <v>1</v>
@@ -16672,7 +16656,7 @@
         <v>57</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="C259" s="1">
         <v>2</v>
@@ -16681,10 +16665,10 @@
         <v>2019</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="G259" s="1">
         <v>1</v>
@@ -16728,7 +16712,7 @@
         <v>58</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="C260" s="1">
         <v>1</v>
@@ -16737,10 +16721,10 @@
         <v>2019</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="G260" s="1">
         <v>2</v>
@@ -16784,7 +16768,7 @@
         <v>58</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="C261" s="1">
         <v>2</v>
@@ -16793,10 +16777,10 @@
         <v>2019</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="G261" s="1">
         <v>2</v>
@@ -16840,7 +16824,7 @@
         <v>19</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="C262" s="1">
         <v>1</v>
@@ -16849,10 +16833,10 @@
         <v>2016</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="G262" s="1">
         <v>2</v>
@@ -16896,7 +16880,7 @@
         <v>19</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="C263" s="1">
         <v>2</v>
@@ -16905,10 +16889,10 @@
         <v>2016</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G263" s="1">
         <v>2</v>
@@ -16952,7 +16936,7 @@
         <v>19</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="C264" s="1">
         <v>3</v>
@@ -16961,10 +16945,10 @@
         <v>2016</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>428</v>
+        <v>387</v>
       </c>
       <c r="G264" s="1">
         <v>2</v>
@@ -17008,7 +16992,7 @@
         <v>3</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C265" s="1">
         <v>1</v>
@@ -17017,10 +17001,10 @@
         <v>2015</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>430</v>
+        <v>388</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>431</v>
+        <v>389</v>
       </c>
       <c r="G265" s="1">
         <v>3</v>
@@ -17064,7 +17048,7 @@
         <v>3</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C266" s="1">
         <v>2</v>
@@ -17073,10 +17057,10 @@
         <v>2015</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>432</v>
+        <v>390</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="G266" s="1">
         <v>3</v>
@@ -17120,7 +17104,7 @@
         <v>59</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C267" s="1">
         <v>1</v>
@@ -17129,10 +17113,10 @@
         <v>2019</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>435</v>
+        <v>392</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>436</v>
+        <v>393</v>
       </c>
       <c r="G267" s="1">
         <v>3</v>
@@ -17176,7 +17160,7 @@
         <v>59</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C268" s="1">
         <v>2</v>
@@ -17185,10 +17169,10 @@
         <v>2019</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>437</v>
+        <v>394</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>438</v>
+        <v>395</v>
       </c>
       <c r="G268" s="1">
         <v>3</v>
@@ -17232,7 +17216,7 @@
         <v>59</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C269" s="1">
         <v>3</v>
@@ -17241,10 +17225,10 @@
         <v>2019</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>439</v>
+        <v>396</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>440</v>
+        <v>397</v>
       </c>
       <c r="G269" s="1">
         <v>3</v>
@@ -17288,7 +17272,7 @@
         <v>59</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C270" s="1">
         <v>4</v>
@@ -17297,10 +17281,10 @@
         <v>2019</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>441</v>
+        <v>398</v>
       </c>
       <c r="G270" s="1">
         <v>3</v>
@@ -17344,7 +17328,7 @@
         <v>59</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C271" s="1">
         <v>5</v>
@@ -17353,10 +17337,10 @@
         <v>2019</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>441</v>
+        <v>398</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>442</v>
+        <v>399</v>
       </c>
       <c r="G271" s="1">
         <v>3</v>
